--- a/PLSstatic/PLSstatic_predicted_factors_matrix_9.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_9.xlsx
@@ -443,26 +443,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.47841918882101</v>
+        <v>-1.478419188821007</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.280292213521244</v>
+        <v>-4.707344516337067</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.4858314172122372</v>
+        <v>-0.4858314172122379</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6421588468466483</v>
+        <v>0.5802011976966502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8630895172089648</v>
+        <v>0.863089517208964</v>
       </c>
       <c r="B4" t="n">
-        <v>0.762410143649501</v>
+        <v>-2.957586405059521</v>
       </c>
     </row>
     <row r="5">
@@ -470,47 +470,47 @@
         <v>0.765012863252745</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7200565610182983</v>
+        <v>0.5424457742420091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.8161408853368723</v>
+        <v>-0.8161408853368732</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6992173449572259</v>
+        <v>-1.972806165615633</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.07197838678681105</v>
+        <v>-0.07197838678681279</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02304656654512674</v>
+        <v>-0.6742525705485135</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7793861571261943</v>
+        <v>0.7793861571261941</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6763939712096118</v>
+        <v>0.9198368732398564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3188066342661659</v>
+        <v>0.3188066342661657</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3342048528180049</v>
+        <v>-0.2078810524838768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1811713301464561</v>
+        <v>-0.1811713301464574</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.06388085820981396</v>
+        <v>-1.82992045462128</v>
       </c>
     </row>
   </sheetData>
